--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,9 +52,6 @@
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -67,61 +64,67 @@
     <t>forced</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>cut</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>cut</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
@@ -130,15 +133,24 @@
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -154,19 +166,31 @@
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>special</t>
+    <t>strong</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
@@ -175,18 +199,6 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -199,66 +211,57 @@
     <t>better</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -268,19 +271,22 @@
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -638,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -757,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -828,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -878,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -907,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8695652173913043</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8595890410958904</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,16 +1084,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.9112271540469974</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,7 +1113,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -1125,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.9060052219321149</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7189922480620154</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C13">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7142857142857143</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C14">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.8875</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.711864406779661</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K15">
         <v>0.8873239436619719</v>
@@ -1357,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7037037037037037</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>366</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>366</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.8828125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.88125</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L17">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K18">
         <v>0.8620689655172413</v>
@@ -1507,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6862745098039216</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K19">
         <v>0.8611111111111112</v>
@@ -1557,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K20">
         <v>0.8536585365853658</v>
@@ -1607,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.8095238095238095</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6451612903225806</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1707,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6375838926174496</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C23">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1763,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,16 +1834,16 @@
         <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.78</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1863,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5638888888888889</v>
+        <v>0.5611111111111111</v>
       </c>
       <c r="C26">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K26">
         <v>0.7777777777777778</v>
@@ -1907,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.7705882352941177</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L27">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M27">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,13 +1963,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.509090909090909</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1975,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +2013,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2049,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,13 +2063,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4363636363636363</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2075,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2099,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,13 +2113,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3376623376623377</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.735593220338983</v>
+        <v>0.725</v>
       </c>
       <c r="L31">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2149,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2157,13 +2163,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3222222222222222</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2175,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.7272727272727273</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2199,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2207,13 +2213,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2698412698412698</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2225,31 +2231,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33">
+        <v>0.698744769874477</v>
+      </c>
+      <c r="L33">
+        <v>167</v>
+      </c>
+      <c r="M33">
+        <v>167</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>72</v>
-      </c>
-      <c r="K33">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L33">
-        <v>68</v>
-      </c>
-      <c r="M33">
-        <v>68</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2278,16 +2284,16 @@
         <v>60</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.7142857142857143</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2299,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2307,167 +2313,263 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1501340482573726</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C35">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>62</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>311</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L35">
+        <v>46</v>
+      </c>
+      <c r="M35">
+        <v>46</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>280</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01159420289855072</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>0.05</v>
+      </c>
+      <c r="F37">
+        <v>0.95</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3069</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="L37">
+        <v>41</v>
+      </c>
+      <c r="M37">
+        <v>41</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.008834665544804375</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>0.09</v>
+      </c>
+      <c r="F38">
+        <v>0.91</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2356</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38">
+        <v>0.6292134831460674</v>
+      </c>
+      <c r="L38">
         <v>56</v>
       </c>
-      <c r="D35">
+      <c r="M38">
         <v>56</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>317</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.7112970711297071</v>
-      </c>
-      <c r="L35">
-        <v>170</v>
-      </c>
-      <c r="M35">
-        <v>170</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L36">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.003806089743589744</v>
+      </c>
+      <c r="C39">
         <v>19</v>
       </c>
-      <c r="M36">
-        <v>19</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.6966292134831461</v>
-      </c>
-      <c r="L37">
-        <v>62</v>
-      </c>
-      <c r="M37">
-        <v>62</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L38">
-        <v>34</v>
-      </c>
-      <c r="M38">
-        <v>34</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>0.17</v>
+      </c>
+      <c r="F39">
+        <v>0.83</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>4973</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L39">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="L39">
-        <v>43</v>
-      </c>
-      <c r="M39">
-        <v>43</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>0.6571428571428571</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L40">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2479,21 +2581,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K41">
-        <v>0.6451612903225806</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2505,21 +2607,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.6222222222222222</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2531,15 +2633,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L43">
         <v>24</v>
@@ -2557,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>0.5342465753424658</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2583,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.4754098360655737</v>
+        <v>0.359375</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2609,111 +2711,59 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.4487179487179487</v>
+        <v>0.02251876563803169</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.4375</v>
+        <v>0.007879924953095686</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K48">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="L48">
-        <v>25</v>
-      </c>
-      <c r="M48">
-        <v>25</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L49">
-        <v>19</v>
-      </c>
-      <c r="M49">
-        <v>19</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>38</v>
+        <v>2644</v>
       </c>
     </row>
   </sheetData>
